--- a/data/pca/factorExposure/factorExposure_2010-04-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-04-07.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01379211947973588</v>
+        <v>-0.01706572385973578</v>
       </c>
       <c r="C2">
-        <v>-0.007319856769603092</v>
+        <v>-0.0009706755826640241</v>
       </c>
       <c r="D2">
-        <v>-0.01107089327175215</v>
+        <v>-0.008328424986620332</v>
       </c>
       <c r="E2">
-        <v>0.01074697045411874</v>
+        <v>-8.328678165181656e-05</v>
       </c>
       <c r="F2">
-        <v>0.01447600227589168</v>
+        <v>-0.01044132375554527</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1202952510819036</v>
+        <v>-0.09309022577035764</v>
       </c>
       <c r="C4">
-        <v>0.07552675365597915</v>
+        <v>-0.0161499797416064</v>
       </c>
       <c r="D4">
-        <v>-0.01088414082788254</v>
+        <v>-0.084717914521542</v>
       </c>
       <c r="E4">
-        <v>-0.007661736433877077</v>
+        <v>0.03080813303249446</v>
       </c>
       <c r="F4">
-        <v>-0.0004076650708592032</v>
+        <v>0.03152826278553179</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1198871882756999</v>
+        <v>-0.1540850041754527</v>
       </c>
       <c r="C6">
-        <v>-0.0005938415813215452</v>
+        <v>-0.02455376437559649</v>
       </c>
       <c r="D6">
-        <v>-0.0128187999032081</v>
+        <v>0.02149235502795718</v>
       </c>
       <c r="E6">
-        <v>0.03022030427509119</v>
+        <v>0.00893098614423124</v>
       </c>
       <c r="F6">
-        <v>-0.05371027347715896</v>
+        <v>0.04686891031474232</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06981515418088158</v>
+        <v>-0.05930921999082876</v>
       </c>
       <c r="C7">
-        <v>0.06049448323521753</v>
+        <v>0.0007927272438605678</v>
       </c>
       <c r="D7">
-        <v>-0.04417923226404286</v>
+        <v>-0.05196279304134978</v>
       </c>
       <c r="E7">
-        <v>0.02438432461194301</v>
+        <v>0.01501514004316681</v>
       </c>
       <c r="F7">
-        <v>0.03140507529255937</v>
+        <v>0.0508530745883461</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05373517761453388</v>
+        <v>-0.05815429650331579</v>
       </c>
       <c r="C8">
-        <v>0.03222003897334564</v>
+        <v>0.01317822828356273</v>
       </c>
       <c r="D8">
-        <v>-0.02378786593605672</v>
+        <v>-0.0320209481112616</v>
       </c>
       <c r="E8">
-        <v>-0.008975738047778094</v>
+        <v>0.01555177369249781</v>
       </c>
       <c r="F8">
-        <v>-0.02132635647569058</v>
+        <v>-0.02919149138057133</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08411602585549556</v>
+        <v>-0.07090897590546709</v>
       </c>
       <c r="C9">
-        <v>0.05776822039744871</v>
+        <v>-0.01216850797696424</v>
       </c>
       <c r="D9">
-        <v>-0.01700177287347256</v>
+        <v>-0.08417821373440031</v>
       </c>
       <c r="E9">
-        <v>-0.01600170206644052</v>
+        <v>0.02510259253072926</v>
       </c>
       <c r="F9">
-        <v>0.0064200213139848</v>
+        <v>0.05372428707700951</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1076220715090148</v>
+        <v>-0.09515220288453734</v>
       </c>
       <c r="C10">
-        <v>-0.1745047670883519</v>
+        <v>-0.01784346372848348</v>
       </c>
       <c r="D10">
-        <v>0.01487160802109355</v>
+        <v>0.1713161209725871</v>
       </c>
       <c r="E10">
-        <v>0.009421740020944116</v>
+        <v>-0.03996891192733296</v>
       </c>
       <c r="F10">
-        <v>0.04101357485524533</v>
+        <v>-0.05342896239625629</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.07716566532962543</v>
+        <v>-0.08737562574329262</v>
       </c>
       <c r="C11">
-        <v>0.05516446327965647</v>
+        <v>-0.01154280747739938</v>
       </c>
       <c r="D11">
-        <v>-0.03387486658019236</v>
+        <v>-0.1144255818257705</v>
       </c>
       <c r="E11">
-        <v>-0.01962567222426045</v>
+        <v>0.04955897128527957</v>
       </c>
       <c r="F11">
-        <v>-0.01272951962201732</v>
+        <v>0.01987958094192931</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07922842917266598</v>
+        <v>-0.09187515774579917</v>
       </c>
       <c r="C12">
-        <v>0.07817155775475883</v>
+        <v>-0.00916743617380582</v>
       </c>
       <c r="D12">
-        <v>-0.04579537745117707</v>
+        <v>-0.1231033863781615</v>
       </c>
       <c r="E12">
-        <v>-0.06385277691560279</v>
+        <v>0.0485187322265291</v>
       </c>
       <c r="F12">
-        <v>0.01893462036587187</v>
+        <v>0.02011525744630458</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.0300330086259731</v>
+        <v>-0.04283794702037558</v>
       </c>
       <c r="C13">
-        <v>0.03005761461484058</v>
+        <v>-0.003740127077559905</v>
       </c>
       <c r="D13">
-        <v>-0.002624920457023229</v>
+        <v>-0.04728049081735487</v>
       </c>
       <c r="E13">
-        <v>0.01757281290034887</v>
+        <v>-0.01116250815874288</v>
       </c>
       <c r="F13">
-        <v>0.01659690348508915</v>
+        <v>0.01302890857765592</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.03964080676668983</v>
+        <v>-0.02231351660837085</v>
       </c>
       <c r="C14">
-        <v>0.02619028795109457</v>
+        <v>-0.01427518831845986</v>
       </c>
       <c r="D14">
-        <v>0.003056932741652957</v>
+        <v>-0.03147061178893398</v>
       </c>
       <c r="E14">
-        <v>-0.02255312634693202</v>
+        <v>0.01884181643783444</v>
       </c>
       <c r="F14">
-        <v>0.001686144543932469</v>
+        <v>0.01829283915065981</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01658661932427832</v>
+        <v>-0.0314757796873926</v>
       </c>
       <c r="C15">
-        <v>0.00712138360496355</v>
+        <v>-0.005448542329175455</v>
       </c>
       <c r="D15">
-        <v>-0.01058921170879746</v>
+        <v>-0.04475539454614648</v>
       </c>
       <c r="E15">
-        <v>0.04431394843505317</v>
+        <v>0.008966626912670401</v>
       </c>
       <c r="F15">
-        <v>0.01929191135725357</v>
+        <v>0.03022279442747769</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.08433735125594673</v>
+        <v>-0.07327480608671548</v>
       </c>
       <c r="C16">
-        <v>0.06337200741878735</v>
+        <v>-0.003029765349447213</v>
       </c>
       <c r="D16">
-        <v>-0.04203631770181227</v>
+        <v>-0.1177635944985018</v>
       </c>
       <c r="E16">
-        <v>-0.04237104100514016</v>
+        <v>0.06373427329644404</v>
       </c>
       <c r="F16">
-        <v>-0.006738320119585399</v>
+        <v>0.02876699700715615</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02355614175134439</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003443771962394223</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.01824078937705741</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.008840089132957767</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.0160470891249989</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.04873372366005271</v>
+        <v>-0.06074086943728055</v>
       </c>
       <c r="C20">
-        <v>0.03474369242317144</v>
+        <v>-0.0007447900947698066</v>
       </c>
       <c r="D20">
-        <v>0.01180055853983962</v>
+        <v>-0.07492196648700784</v>
       </c>
       <c r="E20">
-        <v>0.02660312548408137</v>
+        <v>0.05570684520556238</v>
       </c>
       <c r="F20">
-        <v>0.01077826520650737</v>
+        <v>0.02861098794807632</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.02936368602103282</v>
+        <v>-0.03876419385092249</v>
       </c>
       <c r="C21">
-        <v>0.01305450109770781</v>
+        <v>-0.006890865259910816</v>
       </c>
       <c r="D21">
-        <v>0.01935055227662223</v>
+        <v>-0.03650938321477611</v>
       </c>
       <c r="E21">
-        <v>-0.01429401424445911</v>
+        <v>-0.007566212013030894</v>
       </c>
       <c r="F21">
-        <v>-0.01722688627586897</v>
+        <v>-0.0204597131726174</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.02895132901736508</v>
+        <v>-0.04259786723124662</v>
       </c>
       <c r="C22">
-        <v>-0.02206018082115665</v>
+        <v>-0.0004652837473744342</v>
       </c>
       <c r="D22">
-        <v>-0.0410996981295584</v>
+        <v>-0.0007483487129069621</v>
       </c>
       <c r="E22">
-        <v>0.6049870995173724</v>
+        <v>0.02968523583257324</v>
       </c>
       <c r="F22">
-        <v>0.1704291073672462</v>
+        <v>-0.008994858613602236</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.02918401958745395</v>
+        <v>-0.04265183649478331</v>
       </c>
       <c r="C23">
-        <v>-0.02151689326903123</v>
+        <v>-0.0004875364766090502</v>
       </c>
       <c r="D23">
-        <v>-0.04242510183944222</v>
+        <v>-0.000875475168239916</v>
       </c>
       <c r="E23">
-        <v>0.6083504489257735</v>
+        <v>0.03004535633281628</v>
       </c>
       <c r="F23">
-        <v>0.1692876201471032</v>
+        <v>-0.00854339105264583</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08496549214609947</v>
+        <v>-0.07968805721162166</v>
       </c>
       <c r="C24">
-        <v>0.06423019638948864</v>
+        <v>-0.00323161203214784</v>
       </c>
       <c r="D24">
-        <v>-0.02767401113684256</v>
+        <v>-0.1185465192302913</v>
       </c>
       <c r="E24">
-        <v>-0.0337999335727051</v>
+        <v>0.05155807481948013</v>
       </c>
       <c r="F24">
-        <v>-0.0002638623870169768</v>
+        <v>0.02162096007927956</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.0903855625094931</v>
+        <v>-0.08457241683642647</v>
       </c>
       <c r="C25">
-        <v>0.06113339858146308</v>
+        <v>-0.005374428822558729</v>
       </c>
       <c r="D25">
-        <v>-0.04023986645839187</v>
+        <v>-0.1070124898644409</v>
       </c>
       <c r="E25">
-        <v>-0.06593683939068624</v>
+        <v>0.03461914916783438</v>
       </c>
       <c r="F25">
-        <v>0.01487460667561794</v>
+        <v>0.02904645176388695</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04170107163722165</v>
+        <v>-0.05447601962465675</v>
       </c>
       <c r="C26">
-        <v>-0.004290812993389975</v>
+        <v>-0.01487431767074823</v>
       </c>
       <c r="D26">
-        <v>0.01641910604245717</v>
+        <v>-0.03767504526826276</v>
       </c>
       <c r="E26">
-        <v>0.01257063076961099</v>
+        <v>0.02792388534580244</v>
       </c>
       <c r="F26">
-        <v>-0.01669072703728596</v>
+        <v>-0.01251171180331728</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1188783075750366</v>
+        <v>-0.1436379680395849</v>
       </c>
       <c r="C28">
-        <v>-0.317773463813133</v>
+        <v>-0.01612773292434612</v>
       </c>
       <c r="D28">
-        <v>-0.004825845849972147</v>
+        <v>0.2662260116141516</v>
       </c>
       <c r="E28">
-        <v>-0.03249116842954032</v>
+        <v>-0.06939528092517706</v>
       </c>
       <c r="F28">
-        <v>-0.01322285441624049</v>
+        <v>0.02870524270256592</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.0331065452731885</v>
+        <v>-0.02717126296845653</v>
       </c>
       <c r="C29">
-        <v>0.01928506071234602</v>
+        <v>-0.00868991470049095</v>
       </c>
       <c r="D29">
-        <v>-0.00622746578485932</v>
+        <v>-0.02985028364774361</v>
       </c>
       <c r="E29">
-        <v>-0.03921144700349493</v>
+        <v>0.01170697781005804</v>
       </c>
       <c r="F29">
-        <v>0.03621256712173115</v>
+        <v>-0.0133538036086971</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.1034118328439494</v>
+        <v>-0.06253908526989935</v>
       </c>
       <c r="C30">
-        <v>0.09348515755010921</v>
+        <v>-0.004458594634720777</v>
       </c>
       <c r="D30">
-        <v>-0.04916623657302188</v>
+        <v>-0.08629052507045819</v>
       </c>
       <c r="E30">
-        <v>-0.04816659650864621</v>
+        <v>0.02509552318627652</v>
       </c>
       <c r="F30">
-        <v>-0.04560505431800876</v>
+        <v>0.1044401556591722</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.03047320591618318</v>
+        <v>-0.04825890208810703</v>
       </c>
       <c r="C31">
-        <v>0.03402631860503678</v>
+        <v>-0.01494866969096414</v>
       </c>
       <c r="D31">
-        <v>-0.001430174303628275</v>
+        <v>-0.02807355825095434</v>
       </c>
       <c r="E31">
-        <v>0.001926055152524755</v>
+        <v>0.02721982654732894</v>
       </c>
       <c r="F31">
-        <v>0.00540556571267666</v>
+        <v>-0.004718768874172961</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05854862830393383</v>
+        <v>-0.04810636693977088</v>
       </c>
       <c r="C32">
-        <v>0.01346780567369954</v>
+        <v>0.0001825244411646717</v>
       </c>
       <c r="D32">
-        <v>0.01656976284758434</v>
+        <v>-0.03069007833435784</v>
       </c>
       <c r="E32">
-        <v>-0.0670537963672571</v>
+        <v>0.02992866906502032</v>
       </c>
       <c r="F32">
-        <v>-0.07670659820228763</v>
+        <v>0.001758913657555598</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09310256136561969</v>
+        <v>-0.08985112963573337</v>
       </c>
       <c r="C33">
-        <v>0.06431350898830349</v>
+        <v>-0.008685614349706897</v>
       </c>
       <c r="D33">
-        <v>-0.08234446562266222</v>
+        <v>-0.09540261172999195</v>
       </c>
       <c r="E33">
-        <v>-0.02498766618549165</v>
+        <v>0.04713731564608657</v>
       </c>
       <c r="F33">
-        <v>0.00936938474141767</v>
+        <v>0.04067469969588953</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07257382343297927</v>
+        <v>-0.06733460402481244</v>
       </c>
       <c r="C34">
-        <v>0.0577319219503951</v>
+        <v>-0.01178530602033016</v>
       </c>
       <c r="D34">
-        <v>-0.02969791772722272</v>
+        <v>-0.0985758506441287</v>
       </c>
       <c r="E34">
-        <v>-0.03797667377306144</v>
+        <v>0.03605005542246915</v>
       </c>
       <c r="F34">
-        <v>0.00496644890470139</v>
+        <v>0.03907660029925074</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01003114839175811</v>
+        <v>-0.02425129046792426</v>
       </c>
       <c r="C35">
-        <v>0.01736996695721777</v>
+        <v>-0.002451473671035671</v>
       </c>
       <c r="D35">
-        <v>-0.003948429787996036</v>
+        <v>-0.01153331981214181</v>
       </c>
       <c r="E35">
-        <v>-0.004884369286118602</v>
+        <v>0.01121915114272314</v>
       </c>
       <c r="F35">
-        <v>0.01683653717366169</v>
+        <v>0.008960251133626043</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02709310368188348</v>
+        <v>-0.02437533855256202</v>
       </c>
       <c r="C36">
-        <v>0.01509070207005676</v>
+        <v>-0.007209689778380051</v>
       </c>
       <c r="D36">
-        <v>-0.007657899529609486</v>
+        <v>-0.03739280410733355</v>
       </c>
       <c r="E36">
-        <v>0.007573039750856444</v>
+        <v>0.0181541287167577</v>
       </c>
       <c r="F36">
-        <v>-0.008031244789347977</v>
+        <v>0.0131474621118479</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.008027878942329434</v>
+        <v>-0.001535801067113229</v>
       </c>
       <c r="C38">
-        <v>0.0104619823364562</v>
+        <v>-0.0002401645458386287</v>
       </c>
       <c r="D38">
-        <v>-0.007470907158365691</v>
+        <v>-0.001130392366148643</v>
       </c>
       <c r="E38">
-        <v>0.01898334838743903</v>
+        <v>0.001384407820059533</v>
       </c>
       <c r="F38">
-        <v>0.03402164954842597</v>
+        <v>-0.001080393055879046</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1221355412659699</v>
+        <v>-0.1079146918383185</v>
       </c>
       <c r="C39">
-        <v>0.1084102460638693</v>
+        <v>-0.01674873101095567</v>
       </c>
       <c r="D39">
-        <v>-0.07109852037657365</v>
+        <v>-0.154315616597789</v>
       </c>
       <c r="E39">
-        <v>-0.144228610994873</v>
+        <v>0.06189401362252444</v>
       </c>
       <c r="F39">
-        <v>0.0005547444721319202</v>
+        <v>0.02532865756563997</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.005540786992402525</v>
+        <v>-0.03714697521235878</v>
       </c>
       <c r="C40">
-        <v>0.02595736000338443</v>
+        <v>-0.007279432206229367</v>
       </c>
       <c r="D40">
-        <v>0.01350381659583499</v>
+        <v>-0.03145887001187517</v>
       </c>
       <c r="E40">
-        <v>0.06682996316905666</v>
+        <v>0.003429891309456575</v>
       </c>
       <c r="F40">
-        <v>0.03789843976078248</v>
+        <v>-0.01361448378418667</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02590844463058327</v>
+        <v>-0.0263101843528244</v>
       </c>
       <c r="C41">
-        <v>0.002918896568361465</v>
+        <v>-0.006575977258874715</v>
       </c>
       <c r="D41">
-        <v>0.003305877275019716</v>
+        <v>-0.01158580569701817</v>
       </c>
       <c r="E41">
-        <v>-0.006899769526347212</v>
+        <v>0.01265316334390134</v>
       </c>
       <c r="F41">
-        <v>0.008736291360982914</v>
+        <v>-0.008875556409612725</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03685537098440287</v>
+        <v>-0.04060607979223719</v>
       </c>
       <c r="C43">
-        <v>0.006114589341434813</v>
+        <v>-0.006755253232683472</v>
       </c>
       <c r="D43">
-        <v>-0.01606648038241817</v>
+        <v>-0.02101834859638881</v>
       </c>
       <c r="E43">
-        <v>-0.003572727832297747</v>
+        <v>0.02484926848363941</v>
       </c>
       <c r="F43">
-        <v>-0.001382197234508906</v>
+        <v>-0.01307397499437277</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1209647288532364</v>
+        <v>-0.07597530737770555</v>
       </c>
       <c r="C44">
-        <v>0.1388074003534472</v>
+        <v>-0.02179612301981036</v>
       </c>
       <c r="D44">
-        <v>-0.07426484452087302</v>
+        <v>-0.09465462926953644</v>
       </c>
       <c r="E44">
-        <v>0.09581455355230889</v>
+        <v>0.07603846410647853</v>
       </c>
       <c r="F44">
-        <v>0.1055939899242</v>
+        <v>0.1867131117165127</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.01857913739368394</v>
+        <v>-0.02222435923064439</v>
       </c>
       <c r="C46">
-        <v>-0.01538195619888581</v>
+        <v>-0.003797452085512336</v>
       </c>
       <c r="D46">
-        <v>-0.0180532225242639</v>
+        <v>-0.01218703492795953</v>
       </c>
       <c r="E46">
-        <v>0.02270902996440119</v>
+        <v>0.02378820474800258</v>
       </c>
       <c r="F46">
-        <v>0.03007412556360358</v>
+        <v>0.0003115394592769742</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.0371043843702492</v>
+        <v>-0.05189150973293539</v>
       </c>
       <c r="C47">
-        <v>0.02315829142784055</v>
+        <v>-0.003226098167662627</v>
       </c>
       <c r="D47">
-        <v>0.004924277324684376</v>
+        <v>-0.01380045591752626</v>
       </c>
       <c r="E47">
-        <v>-0.007832229198765903</v>
+        <v>0.02201129463966797</v>
       </c>
       <c r="F47">
-        <v>0.001354310761823748</v>
+        <v>-0.04480355175863136</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04439108394874344</v>
+        <v>-0.04752673430589092</v>
       </c>
       <c r="C48">
-        <v>0.02256873747260137</v>
+        <v>-0.002739455657658678</v>
       </c>
       <c r="D48">
-        <v>-0.008059682317414513</v>
+        <v>-0.04867299224508765</v>
       </c>
       <c r="E48">
-        <v>-0.009289133978578189</v>
+        <v>-0.00423455831401016</v>
       </c>
       <c r="F48">
-        <v>0.01977795132972957</v>
+        <v>0.01007683592000377</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2274983411213114</v>
+        <v>-0.2026008848312744</v>
       </c>
       <c r="C49">
-        <v>-0.005857305409767861</v>
+        <v>-0.01772674747660903</v>
       </c>
       <c r="D49">
-        <v>0.04247352120330038</v>
+        <v>0.01047396427020669</v>
       </c>
       <c r="E49">
-        <v>-0.01966417842374533</v>
+        <v>0.03267014369138028</v>
       </c>
       <c r="F49">
-        <v>0.04070822990517094</v>
+        <v>0.03132360919714021</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03884503991643639</v>
+        <v>-0.04818240861718426</v>
       </c>
       <c r="C50">
-        <v>0.02860228595421071</v>
+        <v>-0.0110487297036515</v>
       </c>
       <c r="D50">
-        <v>0.007076313796314116</v>
+        <v>-0.02664040619510209</v>
       </c>
       <c r="E50">
-        <v>-0.01085753021806405</v>
+        <v>0.02974789251666088</v>
       </c>
       <c r="F50">
-        <v>0.004113533082006961</v>
+        <v>0.008780290164524735</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01242351556240857</v>
+        <v>-0.002264544978030465</v>
       </c>
       <c r="C51">
-        <v>-0.01855600919185673</v>
+        <v>-0.0005745599696021449</v>
       </c>
       <c r="D51">
-        <v>-0.014876399375613</v>
+        <v>0.002627277057009383</v>
       </c>
       <c r="E51">
-        <v>0.007126980057677137</v>
+        <v>-0.000320572999977672</v>
       </c>
       <c r="F51">
-        <v>0.01056831972901547</v>
+        <v>0.004859402100003453</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1037739653867483</v>
+        <v>-0.1447531732498338</v>
       </c>
       <c r="C52">
-        <v>0.07890902545184003</v>
+        <v>-0.01368453864279147</v>
       </c>
       <c r="D52">
-        <v>-0.01275419070643882</v>
+        <v>-0.05148191530115966</v>
       </c>
       <c r="E52">
-        <v>-0.01096697034900413</v>
+        <v>0.0241967844569833</v>
       </c>
       <c r="F52">
-        <v>0.01690614381593473</v>
+        <v>0.03308242363301057</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1625769408435505</v>
+        <v>-0.1742127948529534</v>
       </c>
       <c r="C53">
-        <v>0.04178199478413198</v>
+        <v>-0.01648612998088013</v>
       </c>
       <c r="D53">
-        <v>-0.008621274061291062</v>
+        <v>-0.0119524313894365</v>
       </c>
       <c r="E53">
-        <v>0.02152597452195063</v>
+        <v>0.0357056573313828</v>
       </c>
       <c r="F53">
-        <v>0.03637398663310557</v>
+        <v>0.06550104402421864</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.05043173350316518</v>
+        <v>-0.02142307904382748</v>
       </c>
       <c r="C54">
-        <v>0.04404150798107195</v>
+        <v>-0.01235718928775686</v>
       </c>
       <c r="D54">
-        <v>-0.00288759702763953</v>
+        <v>-0.03314692776897261</v>
       </c>
       <c r="E54">
-        <v>0.0230602946228768</v>
+        <v>0.01615624592894948</v>
       </c>
       <c r="F54">
-        <v>0.009342235421978835</v>
+        <v>-0.005869098894228045</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08637891008961786</v>
+        <v>-0.1142714507110594</v>
       </c>
       <c r="C55">
-        <v>0.03366809716381038</v>
+        <v>-0.01544807399886516</v>
       </c>
       <c r="D55">
-        <v>-0.06128550708013154</v>
+        <v>-0.01109799915513048</v>
       </c>
       <c r="E55">
-        <v>-0.02623405432696824</v>
+        <v>0.0302542107813886</v>
       </c>
       <c r="F55">
-        <v>0.01999531477586957</v>
+        <v>0.04443678563801985</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1571053215207078</v>
+        <v>-0.177932579795109</v>
       </c>
       <c r="C56">
-        <v>0.05744574889199052</v>
+        <v>-0.01397323044808444</v>
       </c>
       <c r="D56">
-        <v>-0.02299700585277128</v>
+        <v>-0.007635833238102626</v>
       </c>
       <c r="E56">
-        <v>-0.01174565244670097</v>
+        <v>0.03965201441840044</v>
       </c>
       <c r="F56">
-        <v>0.06090684217454134</v>
+        <v>0.04090279150598803</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04956670927987607</v>
+        <v>-0.04645879253589618</v>
       </c>
       <c r="C58">
-        <v>0.02573321995026239</v>
+        <v>-0.001554840580228692</v>
       </c>
       <c r="D58">
-        <v>0.01332653984069677</v>
+        <v>-0.06616342707879649</v>
       </c>
       <c r="E58">
-        <v>0.04998274162976511</v>
+        <v>0.02416543968531486</v>
       </c>
       <c r="F58">
-        <v>0.02795058126915297</v>
+        <v>-0.04353959360269975</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1799857141918178</v>
+        <v>-0.1725613955861991</v>
       </c>
       <c r="C59">
-        <v>-0.2507488425814019</v>
+        <v>-0.01706426375129321</v>
       </c>
       <c r="D59">
-        <v>-0.03071604426606718</v>
+        <v>0.2234423161533479</v>
       </c>
       <c r="E59">
-        <v>-0.0414461460159684</v>
+        <v>-0.04918445594002607</v>
       </c>
       <c r="F59">
-        <v>0.007561043570442651</v>
+        <v>-0.03300973710009113</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.263432917200725</v>
+        <v>-0.2361488436225877</v>
       </c>
       <c r="C60">
-        <v>0.1712169734804059</v>
+        <v>0.004008982423225387</v>
       </c>
       <c r="D60">
-        <v>0.02275531116790606</v>
+        <v>-0.04822472373203315</v>
       </c>
       <c r="E60">
-        <v>-0.06308112251563162</v>
+        <v>0.007660595083976115</v>
       </c>
       <c r="F60">
-        <v>0.1747646271865448</v>
+        <v>-0.03124652989561677</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1099463849767863</v>
+        <v>-0.08288830470095242</v>
       </c>
       <c r="C61">
-        <v>0.0621129531348833</v>
+        <v>-0.01297995225744672</v>
       </c>
       <c r="D61">
-        <v>-0.05369561561023641</v>
+        <v>-0.1142354279426826</v>
       </c>
       <c r="E61">
-        <v>-0.08664707729015181</v>
+        <v>0.04268306059264319</v>
       </c>
       <c r="F61">
-        <v>0.02636436975691535</v>
+        <v>0.0133325403148563</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1566675300878176</v>
+        <v>-0.1703401552551853</v>
       </c>
       <c r="C62">
-        <v>0.0489566208574365</v>
+        <v>-0.01777508657996673</v>
       </c>
       <c r="D62">
-        <v>-0.02426029494217856</v>
+        <v>-0.01207938719670128</v>
       </c>
       <c r="E62">
-        <v>0.004050566906252097</v>
+        <v>0.03679983675110355</v>
       </c>
       <c r="F62">
-        <v>0.05373449830992862</v>
+        <v>0.0222621451812277</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.03877798715720503</v>
+        <v>-0.04236174651340741</v>
       </c>
       <c r="C63">
-        <v>-0.003745302839154805</v>
+        <v>-0.002985591206917301</v>
       </c>
       <c r="D63">
-        <v>-0.006474003095335118</v>
+        <v>-0.05220968857302684</v>
       </c>
       <c r="E63">
-        <v>-0.002691908688698205</v>
+        <v>0.02270962442416168</v>
       </c>
       <c r="F63">
-        <v>-0.04302073192357144</v>
+        <v>0.005463442527410816</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09546417470502339</v>
+        <v>-0.1118700222756886</v>
       </c>
       <c r="C64">
-        <v>0.02565047457558066</v>
+        <v>-0.01117267985116124</v>
       </c>
       <c r="D64">
-        <v>-0.006996072562346137</v>
+        <v>-0.04398052663712691</v>
       </c>
       <c r="E64">
-        <v>-0.006503677530834298</v>
+        <v>0.02094069939500962</v>
       </c>
       <c r="F64">
-        <v>0.06653905001640997</v>
+        <v>0.02503387296318614</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1109894387444042</v>
+        <v>-0.1455156214087341</v>
       </c>
       <c r="C65">
-        <v>-0.006049179647508833</v>
+        <v>-0.03120715701740388</v>
       </c>
       <c r="D65">
-        <v>-0.007958573039073494</v>
+        <v>0.04246824412594322</v>
       </c>
       <c r="E65">
-        <v>-0.005976970562409136</v>
+        <v>-0.0007682219825136433</v>
       </c>
       <c r="F65">
-        <v>-0.05776564044064827</v>
+        <v>0.04833977233293387</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1367301307672864</v>
+        <v>-0.1290904052866453</v>
       </c>
       <c r="C66">
-        <v>0.1162178232282325</v>
+        <v>-0.01457648117596805</v>
       </c>
       <c r="D66">
-        <v>-0.06994699937150717</v>
+        <v>-0.1420939272258271</v>
       </c>
       <c r="E66">
-        <v>-0.1173524941662288</v>
+        <v>0.06885148376153881</v>
       </c>
       <c r="F66">
-        <v>0.014835159159126</v>
+        <v>0.03048792125573598</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06588190974581566</v>
+        <v>-0.06209928196736088</v>
       </c>
       <c r="C67">
-        <v>0.04393462564150339</v>
+        <v>-0.003237511725089207</v>
       </c>
       <c r="D67">
-        <v>-0.08978802609420349</v>
+        <v>-0.05344601915305405</v>
       </c>
       <c r="E67">
-        <v>0.01783482069942576</v>
+        <v>0.01761050429974471</v>
       </c>
       <c r="F67">
-        <v>0.0257111648131173</v>
+        <v>-0.04131957705039072</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1036273623900436</v>
+        <v>-0.116896661011618</v>
       </c>
       <c r="C68">
-        <v>-0.2652610622264193</v>
+        <v>-0.02692600778317484</v>
       </c>
       <c r="D68">
-        <v>0.007104954222566163</v>
+        <v>0.2618063069479667</v>
       </c>
       <c r="E68">
-        <v>-0.04090123211012557</v>
+        <v>-0.08757319291002885</v>
       </c>
       <c r="F68">
-        <v>-0.03500745822074949</v>
+        <v>0.03268058208651641</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.0325282745742269</v>
+        <v>-0.03947777793847006</v>
       </c>
       <c r="C69">
-        <v>-0.007298014849607491</v>
+        <v>-0.0009230674925495428</v>
       </c>
       <c r="D69">
-        <v>-0.03123638254281391</v>
+        <v>-0.009283853844379944</v>
       </c>
       <c r="E69">
-        <v>0.000719884412737344</v>
+        <v>0.02416796584255342</v>
       </c>
       <c r="F69">
-        <v>0.01684480900693467</v>
+        <v>-0.01142694873903086</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.03378928254147522</v>
+        <v>-0.06268849418666704</v>
       </c>
       <c r="C70">
-        <v>-0.005657833484349085</v>
+        <v>0.02846200565560712</v>
       </c>
       <c r="D70">
-        <v>-0.04229811406283979</v>
+        <v>-0.02980213416047287</v>
       </c>
       <c r="E70">
-        <v>-0.03842972179216772</v>
+        <v>-0.05111231167608942</v>
       </c>
       <c r="F70">
-        <v>0.03942522031793184</v>
+        <v>-0.2787207128541058</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.121419795214558</v>
+        <v>-0.136254149628682</v>
       </c>
       <c r="C71">
-        <v>-0.2864182502168663</v>
+        <v>-0.03116641458967521</v>
       </c>
       <c r="D71">
-        <v>-0.009142491984474709</v>
+        <v>0.2769806983917653</v>
       </c>
       <c r="E71">
-        <v>-0.03225726797829718</v>
+        <v>-0.0961819442292781</v>
       </c>
       <c r="F71">
-        <v>0.01247489423606431</v>
+        <v>0.0388542655697615</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1449174491586192</v>
+        <v>-0.1409058893944057</v>
       </c>
       <c r="C72">
-        <v>0.01103917289331652</v>
+        <v>-0.02460610820754875</v>
       </c>
       <c r="D72">
-        <v>-0.002462139070250783</v>
+        <v>-0.004720322346764869</v>
       </c>
       <c r="E72">
-        <v>0.01380720151340513</v>
+        <v>0.04525353368771842</v>
       </c>
       <c r="F72">
-        <v>-0.00617453125071039</v>
+        <v>0.02359031305457755</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2236707271587432</v>
+        <v>-0.2032960498849307</v>
       </c>
       <c r="C73">
-        <v>0.02763204645237661</v>
+        <v>-0.01179896090304988</v>
       </c>
       <c r="D73">
-        <v>-0.06200947433335084</v>
+        <v>-0.01578262028291769</v>
       </c>
       <c r="E73">
-        <v>-0.06131670373874482</v>
+        <v>0.06258612993208522</v>
       </c>
       <c r="F73">
-        <v>0.1133523701295857</v>
+        <v>0.03324064521982005</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1187501283138071</v>
+        <v>-0.09487410675775353</v>
       </c>
       <c r="C74">
-        <v>0.06003249058584285</v>
+        <v>-0.01218381182725711</v>
       </c>
       <c r="D74">
-        <v>-0.03728916289706427</v>
+        <v>-0.02052180777957143</v>
       </c>
       <c r="E74">
-        <v>0.00675782444864562</v>
+        <v>0.04834280735547904</v>
       </c>
       <c r="F74">
-        <v>0.02439666609275417</v>
+        <v>0.0481321289182111</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1180254689168443</v>
+        <v>-0.1297981643869255</v>
       </c>
       <c r="C75">
-        <v>0.05664234282988704</v>
+        <v>-0.02640674250197702</v>
       </c>
       <c r="D75">
-        <v>-0.009362719317048455</v>
+        <v>-0.03428558443349936</v>
       </c>
       <c r="E75">
-        <v>0.009168027286447104</v>
+        <v>0.06057814990010085</v>
       </c>
       <c r="F75">
-        <v>0.0003160707668896455</v>
+        <v>0.01289646982686999</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.0223499159002613</v>
+        <v>-0.003883605338357851</v>
       </c>
       <c r="C76">
-        <v>-0.01507301164620094</v>
+        <v>-0.0009059474570798321</v>
       </c>
       <c r="D76">
-        <v>-0.01262865583513334</v>
+        <v>0.002559502798840009</v>
       </c>
       <c r="E76">
-        <v>-0.01059855395224885</v>
+        <v>0.0006663865775383248</v>
       </c>
       <c r="F76">
-        <v>0.01791597934242426</v>
+        <v>0.003917893502786024</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06621806226572548</v>
+        <v>-0.07783650206176736</v>
       </c>
       <c r="C77">
-        <v>0.06086513784280253</v>
+        <v>-0.00904115375693584</v>
       </c>
       <c r="D77">
-        <v>0.02104503488840138</v>
+        <v>-0.1166636711762175</v>
       </c>
       <c r="E77">
-        <v>0.004440816119705942</v>
+        <v>0.03803305866918961</v>
       </c>
       <c r="F77">
-        <v>0.05845350268200492</v>
+        <v>0.03216524980357247</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1197486293116082</v>
+        <v>-0.1043352070771618</v>
       </c>
       <c r="C78">
-        <v>0.03462735258762123</v>
+        <v>-0.04063044956220355</v>
       </c>
       <c r="D78">
-        <v>-0.0966044192426375</v>
+        <v>-0.1147979978111583</v>
       </c>
       <c r="E78">
-        <v>0.3283180773575492</v>
+        <v>0.07950456767990806</v>
       </c>
       <c r="F78">
-        <v>-0.3040446465662421</v>
+        <v>0.07220442308412303</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1373971910140176</v>
+        <v>-0.164260586891629</v>
       </c>
       <c r="C79">
-        <v>0.05450712646877107</v>
+        <v>-0.02049523205856525</v>
       </c>
       <c r="D79">
-        <v>0.01027511068650007</v>
+        <v>-0.0199843664107595</v>
       </c>
       <c r="E79">
-        <v>-0.0006071794996087405</v>
+        <v>0.04959722314378881</v>
       </c>
       <c r="F79">
-        <v>0.02761195265468022</v>
+        <v>0.004843894250295884</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07503965582662728</v>
+        <v>-0.0804126220686792</v>
       </c>
       <c r="C80">
-        <v>0.06872421636311855</v>
+        <v>0.0009074666598099411</v>
       </c>
       <c r="D80">
-        <v>-0.07318597770879079</v>
+        <v>-0.05761985387542955</v>
       </c>
       <c r="E80">
-        <v>-0.02883153810364917</v>
+        <v>0.03684003162889803</v>
       </c>
       <c r="F80">
-        <v>0.01690609102731234</v>
+        <v>-0.01583315262737695</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1402144427336824</v>
+        <v>-0.1235047533345296</v>
       </c>
       <c r="C81">
-        <v>0.07170019946606868</v>
+        <v>-0.03031854340100899</v>
       </c>
       <c r="D81">
-        <v>-0.01780339995567719</v>
+        <v>-0.01875439760064638</v>
       </c>
       <c r="E81">
-        <v>0.006666771755946626</v>
+        <v>0.0599298837841574</v>
       </c>
       <c r="F81">
-        <v>0.02249346726269975</v>
+        <v>0.005537829898317539</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1598689777369452</v>
+        <v>-0.1645394877993738</v>
       </c>
       <c r="C82">
-        <v>0.05045413705917526</v>
+        <v>-0.02208634290150525</v>
       </c>
       <c r="D82">
-        <v>-0.03006593280031801</v>
+        <v>-0.01372253858990437</v>
       </c>
       <c r="E82">
-        <v>-0.02965346721176397</v>
+        <v>0.03588955971330038</v>
       </c>
       <c r="F82">
-        <v>0.0423637153334619</v>
+        <v>0.06675716526574799</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.0866791948817424</v>
+        <v>-0.06261451087608101</v>
       </c>
       <c r="C83">
-        <v>0.1181840584570088</v>
+        <v>-0.003159704811285152</v>
       </c>
       <c r="D83">
-        <v>0.007946056835251321</v>
+        <v>-0.05020278718530603</v>
       </c>
       <c r="E83">
-        <v>0.02872690125295546</v>
+        <v>0.004683577004844391</v>
       </c>
       <c r="F83">
-        <v>-0.01894895112997452</v>
+        <v>-0.04292642327120776</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.0607029494929216</v>
+        <v>-0.05922100574293315</v>
       </c>
       <c r="C84">
-        <v>-0.02039590218758437</v>
+        <v>-0.01083193130531238</v>
       </c>
       <c r="D84">
-        <v>0.01134903918674691</v>
+        <v>-0.06412859763088169</v>
       </c>
       <c r="E84">
-        <v>-0.06292753005641456</v>
+        <v>0.003030152585107825</v>
       </c>
       <c r="F84">
-        <v>0.0570634047980722</v>
+        <v>0.01068405001947655</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1253958604019981</v>
+        <v>-0.1391688991716654</v>
       </c>
       <c r="C85">
-        <v>0.04132744124074017</v>
+        <v>-0.02609608457864645</v>
       </c>
       <c r="D85">
-        <v>-0.01302590537388757</v>
+        <v>-0.01552727627879846</v>
       </c>
       <c r="E85">
-        <v>-0.0002807778649390889</v>
+        <v>0.04151031801962503</v>
       </c>
       <c r="F85">
-        <v>0.04474665273650291</v>
+        <v>0.04556519012796645</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1610405250807436</v>
+        <v>-0.09502600232514324</v>
       </c>
       <c r="C86">
-        <v>0.0995407992198629</v>
+        <v>0.006647605013650529</v>
       </c>
       <c r="D86">
-        <v>0.940768892183507</v>
+        <v>-0.02368713674380192</v>
       </c>
       <c r="E86">
-        <v>0.0508006511202812</v>
+        <v>0.1496603155104977</v>
       </c>
       <c r="F86">
-        <v>-0.04123478837372693</v>
+        <v>-0.8671343783100836</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1247688654622713</v>
+        <v>-0.09620977932016062</v>
       </c>
       <c r="C87">
-        <v>0.1185548606423423</v>
+        <v>-0.02213152365964294</v>
       </c>
       <c r="D87">
-        <v>-0.01020845761187362</v>
+        <v>-0.08873121703060229</v>
       </c>
       <c r="E87">
-        <v>-0.002406960869748563</v>
+        <v>-0.05365166465633694</v>
       </c>
       <c r="F87">
-        <v>0.04827742668978334</v>
+        <v>0.08131630268157276</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.052613280178214</v>
+        <v>-0.06083927735751758</v>
       </c>
       <c r="C88">
-        <v>0.03476383758330862</v>
+        <v>-0.002750537918783296</v>
       </c>
       <c r="D88">
-        <v>-0.0274673927115876</v>
+        <v>-0.05406189554485875</v>
       </c>
       <c r="E88">
-        <v>-0.05760680287564844</v>
+        <v>0.02799516262927036</v>
       </c>
       <c r="F88">
-        <v>0.005663132822301703</v>
+        <v>0.00773423502069887</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1722465317547993</v>
+        <v>-0.1365596948932861</v>
       </c>
       <c r="C89">
-        <v>-0.3628401268978179</v>
+        <v>-0.00951533756378924</v>
       </c>
       <c r="D89">
-        <v>-0.001303750420983237</v>
+        <v>0.2562853768531548</v>
       </c>
       <c r="E89">
-        <v>0.0384354597794789</v>
+        <v>-0.092389642905553</v>
       </c>
       <c r="F89">
-        <v>0.01346004091817381</v>
+        <v>0.01761672380728775</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1322520500298768</v>
+        <v>-0.1473469738949634</v>
       </c>
       <c r="C90">
-        <v>-0.2714508310087608</v>
+        <v>-0.0269446720314989</v>
       </c>
       <c r="D90">
-        <v>0.005017812672785412</v>
+        <v>0.2666904262723195</v>
       </c>
       <c r="E90">
-        <v>-0.05113838518599106</v>
+        <v>-0.1086907351068345</v>
       </c>
       <c r="F90">
-        <v>0.01561408206356328</v>
+        <v>0.02149836907967072</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.08273767501140278</v>
+        <v>-0.1191854073582734</v>
       </c>
       <c r="C91">
-        <v>0.04451981350468634</v>
+        <v>-0.01676214241545108</v>
       </c>
       <c r="D91">
-        <v>0.01078853764364984</v>
+        <v>0.007241531722825024</v>
       </c>
       <c r="E91">
-        <v>0.0002275329316130996</v>
+        <v>0.05715412837753963</v>
       </c>
       <c r="F91">
-        <v>0.03371344247230514</v>
+        <v>-0.01746471549989969</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1464825623142783</v>
+        <v>-0.1504009009693369</v>
       </c>
       <c r="C92">
-        <v>-0.3206330393293013</v>
+        <v>-0.01873321156441158</v>
       </c>
       <c r="D92">
-        <v>0.000231391141150979</v>
+        <v>0.2960809615221764</v>
       </c>
       <c r="E92">
-        <v>0.01451484002785777</v>
+        <v>-0.1050952853463596</v>
       </c>
       <c r="F92">
-        <v>-0.003515499101816309</v>
+        <v>0.01672833337344511</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1348877360340215</v>
+        <v>-0.1517699037397329</v>
       </c>
       <c r="C93">
-        <v>-0.3188113637623476</v>
+        <v>-0.02305052619484261</v>
       </c>
       <c r="D93">
-        <v>0.02396534850574386</v>
+        <v>0.2663869054493793</v>
       </c>
       <c r="E93">
-        <v>-0.0781932353630317</v>
+        <v>-0.07574881937507826</v>
       </c>
       <c r="F93">
-        <v>0.02092800304987101</v>
+        <v>0.01637864595691534</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1398405419696428</v>
+        <v>-0.1331045609863742</v>
       </c>
       <c r="C94">
-        <v>0.05891216553184471</v>
+        <v>-0.02364220106829843</v>
       </c>
       <c r="D94">
-        <v>-0.04849017770140837</v>
+        <v>-0.04583158971477942</v>
       </c>
       <c r="E94">
-        <v>0.02146665754463949</v>
+        <v>0.06086618256513987</v>
       </c>
       <c r="F94">
-        <v>0.02611782126613455</v>
+        <v>0.0312486756123032</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1108567074289489</v>
+        <v>-0.125044719393509</v>
       </c>
       <c r="C95">
-        <v>0.02644200968224061</v>
+        <v>-0.004837176835196761</v>
       </c>
       <c r="D95">
-        <v>-0.03253129293479837</v>
+        <v>-0.09006530379345934</v>
       </c>
       <c r="E95">
-        <v>0.03878990791448956</v>
+        <v>0.04421528892686578</v>
       </c>
       <c r="F95">
-        <v>0.0446341253213215</v>
+        <v>-0.01519516387986914</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.0135454416063874</v>
+        <v>-0.09854951317728915</v>
       </c>
       <c r="C96">
-        <v>0.001272196148386873</v>
+        <v>0.9888335813792811</v>
       </c>
       <c r="D96">
-        <v>0.001848785627453513</v>
+        <v>0.03378517350207108</v>
       </c>
       <c r="E96">
-        <v>0.007511828260903488</v>
+        <v>0.05833666078044313</v>
       </c>
       <c r="F96">
-        <v>-0.002565545078593198</v>
+        <v>0.04649263807571107</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1769151987727173</v>
+        <v>-0.1885412901809332</v>
       </c>
       <c r="C97">
-        <v>0.05810581915941404</v>
+        <v>0.01066584537952647</v>
       </c>
       <c r="D97">
-        <v>-0.05755933918816265</v>
+        <v>0.007997543755701764</v>
       </c>
       <c r="E97">
-        <v>0.114628314225616</v>
+        <v>0.01855036181920733</v>
       </c>
       <c r="F97">
-        <v>-0.8501598190776571</v>
+        <v>-0.1640491452349945</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2453509657341716</v>
+        <v>-0.2050823465293438</v>
       </c>
       <c r="C98">
-        <v>0.01667712322151842</v>
+        <v>-0.007097574511491705</v>
       </c>
       <c r="D98">
-        <v>0.0126309294887147</v>
+        <v>-0.0104441946958366</v>
       </c>
       <c r="E98">
-        <v>0.08519821331593214</v>
+        <v>-0.09815291516535672</v>
       </c>
       <c r="F98">
-        <v>0.02082357192908418</v>
+        <v>-0.1100835328765999</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.04197453411740722</v>
+        <v>-0.05582562774900567</v>
       </c>
       <c r="C99">
-        <v>-0.01313975124291439</v>
+        <v>0.004068044068726789</v>
       </c>
       <c r="D99">
-        <v>-0.04026134451678275</v>
+        <v>-0.0360800930619112</v>
       </c>
       <c r="E99">
-        <v>0.02353637085311229</v>
+        <v>0.02695157454073463</v>
       </c>
       <c r="F99">
-        <v>0.01499930519315282</v>
+        <v>0.003156742462220245</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.03041300044352244</v>
+        <v>-0.1222359493600529</v>
       </c>
       <c r="C100">
-        <v>0.07259832220598771</v>
+        <v>0.05188814060767787</v>
       </c>
       <c r="D100">
-        <v>-0.1325659027695512</v>
+        <v>-0.3484657538327872</v>
       </c>
       <c r="E100">
-        <v>-0.0555051414081434</v>
+        <v>-0.893897142448992</v>
       </c>
       <c r="F100">
-        <v>-0.02160905718718958</v>
+        <v>-0.0712151486969195</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.03273358067893525</v>
+        <v>-0.02710391364386721</v>
       </c>
       <c r="C101">
-        <v>0.01970474508927845</v>
+        <v>-0.008696934130888689</v>
       </c>
       <c r="D101">
-        <v>-0.006984750340685837</v>
+        <v>-0.02956141027906908</v>
       </c>
       <c r="E101">
-        <v>-0.03994012646514124</v>
+        <v>0.01120974977153577</v>
       </c>
       <c r="F101">
-        <v>0.03598348295884939</v>
+        <v>-0.01518550638986053</v>
       </c>
     </row>
     <row r="102" spans="1:6">
